--- a/ValueSet-sulfasalazine-vs.xlsx
+++ b/ValueSet-sulfasalazine-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T18:43:34+00:00</t>
+    <t>2024-11-14T18:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-sulfasalazine-vs.xlsx
+++ b/ValueSet-sulfasalazine-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T18:50:55+00:00</t>
+    <t>2024-11-14T19:02:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
